--- a/topics list status.xlsx
+++ b/topics list status.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup File\devops\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402A37B0-C62E-49C3-956A-1728B755E8BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +25,97 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Topics list</t>
+  </si>
+  <si>
+    <t>Git manipulation</t>
+  </si>
+  <si>
+    <t>Pull Request</t>
+  </si>
+  <si>
+    <t>Pull from another Repo</t>
+  </si>
+  <si>
+    <t>Readme.ad file configuration</t>
+  </si>
+  <si>
+    <t>Jenkins Installation and conf</t>
+  </si>
+  <si>
+    <t>Jenkins Installation</t>
+  </si>
+  <si>
+    <t>Global Variable config and Configuration Management</t>
+  </si>
+  <si>
+    <t>Simple Project Creation with command line Output</t>
+  </si>
+  <si>
+    <t>Create a pipeline project</t>
+  </si>
+  <si>
+    <t>How to add nodes in Jenkins</t>
+  </si>
+  <si>
+    <t>Check how a UserGroup Created and User assigned in that group in Linux and also how to transfer a user in Root Group</t>
+  </si>
+  <si>
+    <t>Create a index.html/any file and transfer that file from any location to Tomcat folder (you could do with Groovy syntax or Script)
+and also restart the tomcat.</t>
+  </si>
+  <si>
+    <t>Write a code of Fibonacci Series (First 10 iteration) and print the series as well as Addition (Addition Result should be printed in main Function)</t>
+  </si>
+  <si>
+    <t>wget https://dlcdn.apache.org/tomcat/tomcat-9/v9.0.54/bin/apache-tomcat-9.0.54.tar.gz
+tar -zxpvf apache-tomcat-9.0.54.tar.gz -C /opt/
+cd /opt/
+mv apache-tomcat-9.0.54 tomcat
+echo "export CATALINA_HOME='/opt/tomcat/'" &gt;&gt; ~/.bashrc
+source ~/.bashrc
+cd /opt/tomcat/bin/
+./startup.sh</t>
+  </si>
+  <si>
+    <t>1. Open up the this script (using VIM or other editor):
+vi /etc/sysconfig/jenkins
+2. Find this $JENKINS_USER and change to “root”:
+$JENKINS_USER="root"
+3. Then change the ownership of Jenkins home, webroot and logs:
+chown -R root:root /var/lib/jenkins
+chown -R root:root /var/cache/jenkins
+chown -R root:root /var/log/jenkins
+4) Restart Jenkins and check the user has been changed:
+service jenkins restart
+ps -ef | grep jenkins</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/mhasan029/DevOpsTraining.git</t>
+  </si>
+  <si>
+    <t>cd DevOpsTraining/</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git config --global user.email "mhasan.sust@gmail.com"</t>
+  </si>
+  <si>
+    <t>git commit -m "document will be added"</t>
+  </si>
+  <si>
+    <t>git push origin main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +125,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +151,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +439,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="143.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5D4198-F83D-43A7-8136-32E1C305602B}">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>